--- a/biology/Zoologie/Astraea_(mollusque)/Astraea_(mollusque).xlsx
+++ b/biology/Zoologie/Astraea_(mollusque)/Astraea_(mollusque).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astraea est un genre de mollusques gastéropodes de la famille des Turbinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (18 novembre 2023)[1], il existe une espèce actuelle et plusieurs espèces fossiles (signalées par une obèle †) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (18 novembre 2023), il existe une espèce actuelle et plusieurs espèces fossiles (signalées par une obèle †) :
 Astraea bicarinata Suter, 1917 †
 Astraea granifer (K. Martin, 1884) †
 Astraea heliotropium (Martyn, 1784)
@@ -548,10 +562,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Astraea Röding, 1798[1].
-Astraea a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Astraea Röding, 1798.
+Astraea a pour synonymes :
 Astralium (Imperator) Montfort, 1810
 Astrea [sic]
 Canthorbis Swainson, 1840
@@ -583,7 +599,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(la) P. F. Röding, Museum Boltenianum sive Catalogus cimeliorum e tribus regnis naturæ quæ olim collegerat Joa. Fried Bolten, M. D. p. d. per XL. annos proto physicus Hamburgensis. Pars secunda continens Conchylia sive Testacea univalvia, bivalvia &amp; multivalvia. Trapp, Hamburg, 1798, viii + 199 pp. (lire en ligne )</t>
         </is>
